--- a/Logging_VASTERNORRLANDS_LAN/Logging_ANGE/artfynd/A 30840-2023.xlsx
+++ b/Logging_VASTERNORRLANDS_LAN/Logging_ANGE/artfynd/A 30840-2023.xlsx
@@ -683,7 +683,7 @@
         <v>111051932</v>
       </c>
       <c r="B2" t="n">
-        <v>77258</v>
+        <v>77267</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -796,7 +796,7 @@
         <v>111052639</v>
       </c>
       <c r="B3" t="n">
-        <v>96334</v>
+        <v>96348</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111052144</v>
+        <v>111052330</v>
       </c>
       <c r="B4" t="n">
-        <v>96334</v>
+        <v>96348</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -939,21 +939,30 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Ömansholmen (Ömansholmen), Mpd</t>
+          <t>Ön Haverö (Ön Haverö), Mpd</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>505586.595854046</v>
+        <v>505566.4405733302</v>
       </c>
       <c r="R4" t="n">
-        <v>6912954.824843475</v>
+        <v>6913047.682812326</v>
       </c>
       <c r="S4" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -982,7 +991,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -992,7 +1001,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1019,10 +1028,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111052497</v>
+        <v>111052279</v>
       </c>
       <c r="B5" t="n">
-        <v>77258</v>
+        <v>96348</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1031,25 +1040,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6446</v>
+        <v>220787</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1060,13 +1069,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>505544.8695405752</v>
+        <v>505548.3107360627</v>
       </c>
       <c r="R5" t="n">
-        <v>6913153.540235949</v>
+        <v>6913041.614857432</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1095,7 +1104,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1105,7 +1114,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1132,10 +1141,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111052279</v>
+        <v>111052223</v>
       </c>
       <c r="B6" t="n">
-        <v>96334</v>
+        <v>96348</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1169,14 +1178,14 @@
       <c r="K6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Ön Haverö (Ön Haverö), Mpd</t>
+          <t>Ömansholmen (Ömansholmen), Mpd</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>505548.3107360627</v>
+        <v>505585.5400955554</v>
       </c>
       <c r="R6" t="n">
-        <v>6913041.614857432</v>
+        <v>6913030.065418502</v>
       </c>
       <c r="S6" t="n">
         <v>20</v>
@@ -1245,10 +1254,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111052330</v>
+        <v>111052010</v>
       </c>
       <c r="B7" t="n">
-        <v>96334</v>
+        <v>77268</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1257,48 +1266,39 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>220787</v>
+        <v>228912</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Ön Haverö (Ön Haverö), Mpd</t>
+          <t>Ömansholmen (Ömansholmen), Mpd</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>505566.4405733302</v>
+        <v>505537.2690634067</v>
       </c>
       <c r="R7" t="n">
-        <v>6913047.682812326</v>
+        <v>6912968.212359355</v>
       </c>
       <c r="S7" t="n">
         <v>20</v>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:15</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>11:15</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1367,10 +1367,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111052010</v>
+        <v>111052497</v>
       </c>
       <c r="B8" t="n">
-        <v>77259</v>
+        <v>77267</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1383,38 +1383,38 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>228912</v>
+        <v>6446</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Ömansholmen (Ömansholmen), Mpd</t>
+          <t>Ön Haverö (Ön Haverö), Mpd</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>505537.2690634067</v>
+        <v>505544.8695405752</v>
       </c>
       <c r="R8" t="n">
-        <v>6912968.212359355</v>
+        <v>6913153.540235949</v>
       </c>
       <c r="S8" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1453,7 +1453,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1480,10 +1480,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111052223</v>
+        <v>111052144</v>
       </c>
       <c r="B9" t="n">
-        <v>96334</v>
+        <v>96348</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1521,13 +1521,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>505585.5400955554</v>
+        <v>505586.595854046</v>
       </c>
       <c r="R9" t="n">
-        <v>6913030.065418502</v>
+        <v>6912954.824843475</v>
       </c>
       <c r="S9" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
         <v>111099082</v>
       </c>
       <c r="B10" t="n">
-        <v>56411</v>
+        <v>56414</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
